--- a/DATA_goal/Junction_Flooding_423.xlsx
+++ b/DATA_goal/Junction_Flooding_423.xlsx
@@ -655,103 +655,103 @@
         <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.65</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.51</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.76</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.31</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_423.xlsx
+++ b/DATA_goal/Junction_Flooding_423.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.71527777778</v>
+        <v>45104.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.6</v>
+        <v>11.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>7.946</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.13</v>
+        <v>3.447</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.7</v>
+        <v>25.671</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.59</v>
+        <v>18.994</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.67</v>
+        <v>26.449</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.93</v>
+        <v>14.543</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.31</v>
+        <v>5.683</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>8.23</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.84</v>
+        <v>10.12</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.09</v>
+        <v>10.985</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>3.013</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.78</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>12.777</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.14</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.71</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.63</v>
+        <v>1.486</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.17</v>
+        <v>135.674</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>25.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.64</v>
+        <v>8.676</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.74</v>
+        <v>16.478</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.28</v>
+        <v>8.538</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.13</v>
+        <v>2.569</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.42</v>
+        <v>14.652</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.47</v>
+        <v>7.663</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>7.143</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.48</v>
+        <v>8.202</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>10.671</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.707</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.62</v>
+        <v>24.031</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>4.513</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>10.846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.72222222222</v>
+        <v>45104.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.8</v>
+        <v>14.249</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.61</v>
+        <v>10.338</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.687</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.37</v>
+        <v>31.276</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.31</v>
+        <v>24.654</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.17</v>
+        <v>11.071</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.76</v>
+        <v>41.835</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.65</v>
+        <v>17.452</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.13</v>
+        <v>7.48</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.75</v>
+        <v>10.846</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.83</v>
+        <v>12.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.52</v>
+        <v>13.419</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.19</v>
+        <v>3.623</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.9</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.53</v>
+        <v>15.823</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>9.869</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.15</v>
+        <v>1.342</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.929</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.59</v>
+        <v>164.347</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.47</v>
+        <v>31.527</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.83</v>
+        <v>10.411</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.67</v>
+        <v>20.764</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.29</v>
+        <v>10.85</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>2.023</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.02</v>
+        <v>21.046</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.6</v>
+        <v>9.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.42</v>
+        <v>8.337</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.62</v>
+        <v>9.750999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>13.118</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.141</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.3</v>
+        <v>38.438</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.63</v>
+        <v>5.675</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.59</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.72916666666</v>
+        <v>45104.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.32</v>
+        <v>12.84</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>9.439</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.184</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.66</v>
+        <v>28.189</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.34</v>
+        <v>22.479</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.72</v>
+        <v>10.016</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.19</v>
+        <v>40.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.03</v>
+        <v>15.707</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.19</v>
+        <v>6.831</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.16</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.25</v>
+        <v>11.289</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.09</v>
+        <v>12.094</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.261</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.26</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.22</v>
+        <v>14.319</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.61</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.51</v>
+        <v>147.187</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.7</v>
+        <v>28.414</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.16</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.27</v>
+        <v>18.841</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.42</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.689</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.74</v>
+        <v>19.538</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.91</v>
+        <v>8.276</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.453</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.97</v>
+        <v>8.734</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.29</v>
+        <v>11.852</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.724</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.31</v>
+        <v>36.627</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.77</v>
+        <v>5.156</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.73611111111</v>
+        <v>45104.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.78</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.09</v>
+        <v>6.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.91</v>
+        <v>18.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5</v>
+        <v>14.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.95</v>
+        <v>6.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.85</v>
+        <v>28.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.69</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.86</v>
+        <v>4.55</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.34</v>
+        <v>6.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.51</v>
+        <v>7.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.49</v>
+        <v>8.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.71</v>
+        <v>2.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.37</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.9</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.61</v>
+        <v>5.9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.76</v>
+        <v>95.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.89</v>
+        <v>19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.19</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.31</v>
+        <v>12.57</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.43</v>
+        <v>6.56</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.3</v>
+        <v>1.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.58</v>
+        <v>13.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.84</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.57</v>
+        <v>4.99</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.93</v>
+        <v>5.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.63</v>
+        <v>7.91</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.44</v>
+        <v>25.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.33</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.63</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.42</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_423.xlsx
+++ b/DATA_goal/Junction_Flooding_423.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45104.50694444445</v>
+        <v>44782.71527777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.794</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.946</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.447</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>25.671</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.994</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.994999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>26.449</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>14.543</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.683</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.23</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.12</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.985</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.013</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.777</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.71</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.486</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>135.674</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>25.95</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.676</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>16.478</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.538</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.569</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.652</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.663</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.143</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.202</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.671</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.707</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>24.031</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.513</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.846</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45104.51388888889</v>
+        <v>44782.72222222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.249</v>
+        <v>0.798</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.338</v>
+        <v>0.613</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.687</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31.276</v>
+        <v>1.372</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.654</v>
+        <v>1.314</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.071</v>
+        <v>0.165</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.835</v>
+        <v>1.763</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.452</v>
+        <v>1.653</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.48</v>
+        <v>1.128</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.846</v>
+        <v>0.747</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.5</v>
+        <v>0.832</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.419</v>
+        <v>0.52</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.623</v>
+        <v>0.192</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.279</v>
+        <v>0.903</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.823</v>
+        <v>0.535</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.869</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.342</v>
+        <v>1.153</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.929</v>
+        <v>0.149</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>164.347</v>
+        <v>3.588</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.527</v>
+        <v>1.473</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.411</v>
+        <v>0.825</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.764</v>
+        <v>1.67</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.85</v>
+        <v>1.288</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.023</v>
+        <v>0.103</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.046</v>
+        <v>1.018</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.196</v>
+        <v>0.596</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.337</v>
+        <v>0.421</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.750999999999999</v>
+        <v>0.616</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.118</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.141</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.438</v>
+        <v>2.305</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.675</v>
+        <v>0.63</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.016</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45104.52083333334</v>
+        <v>44782.72916666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.84</v>
+        <v>1.316</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.439</v>
+        <v>0.997</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.184</v>
+        <v>0.068</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.189</v>
+        <v>2.657</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.479</v>
+        <v>2.339</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.016</v>
+        <v>0.717</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.03</v>
+        <v>3.187</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.707</v>
+        <v>2.028</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.831</v>
+        <v>1.189</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.936999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.289</v>
+        <v>1.254</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.094</v>
+        <v>1.095</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.261</v>
+        <v>0.336</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.151</v>
+        <v>1.257</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.319</v>
+        <v>1.218</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.609</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.799</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.067</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>147.187</v>
+        <v>9.515000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.414</v>
+        <v>2.699</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>1.163</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.841</v>
+        <v>2.267</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>1.417</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.689</v>
+        <v>0.15</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.538</v>
+        <v>1.741</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.276</v>
+        <v>0.913</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.453</v>
+        <v>0.744</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.734</v>
+        <v>0.966</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.852</v>
+        <v>1.293</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.724</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.627</v>
+        <v>3.312</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.156</v>
+        <v>0.772</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.715</v>
+        <v>1.105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45104.52777777778</v>
+        <v>44782.73611111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>2.779</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.28</v>
+        <v>2.094</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.108</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>18.8</v>
+        <v>5.915</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.91</v>
+        <v>5.002</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.66</v>
+        <v>1.949</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.29</v>
+        <v>6.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.47</v>
+        <v>3.688</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.55</v>
+        <v>1.862</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.56</v>
+        <v>2.338</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.53</v>
+        <v>2.514</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.09</v>
+        <v>2.488</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.18</v>
+        <v>0.707</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.77</v>
+        <v>2.365</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.9</v>
+        <v>1.606</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.627</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.076</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>95.69</v>
+        <v>26.758</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>19</v>
+        <v>5.894</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.25</v>
+        <v>2.188</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12.57</v>
+        <v>4.312</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.56</v>
+        <v>2.435</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.16</v>
+        <v>0.297</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.56</v>
+        <v>3.576</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.52</v>
+        <v>1.836</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.99</v>
+        <v>1.574</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.84</v>
+        <v>1.926</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.91</v>
+        <v>2.629</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.166</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>25.94</v>
+        <v>6.436</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.42</v>
+        <v>1.329</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.81</v>
+        <v>2.451</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.74304398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>118.38</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.42</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_423.xlsx
+++ b/DATA_goal/Junction_Flooding_423.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.71527777778</v>
+        <v>45104.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>11.794</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>7.946</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>3.447</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>25.671</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>18.994</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>8.994999999999999</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>26.449</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>14.543</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>5.683</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>8.23</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>10.12</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>10.985</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>3.013</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>12.777</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.71</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>1.486</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>135.674</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>25.95</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>8.676</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>16.478</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>8.538</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>2.569</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>14.652</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>7.663</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>7.143</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>8.202</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>10.671</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>2.707</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>24.031</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>4.513</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>10.846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.72222222222</v>
+        <v>45104.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.798</v>
+        <v>14.249</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.613</v>
+        <v>10.338</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06900000000000001</v>
+        <v>1.687</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.372</v>
+        <v>31.276</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.314</v>
+        <v>24.654</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.165</v>
+        <v>11.071</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.763</v>
+        <v>41.835</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.653</v>
+        <v>17.452</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.128</v>
+        <v>7.48</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.747</v>
+        <v>10.846</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.832</v>
+        <v>12.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.52</v>
+        <v>13.419</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.192</v>
+        <v>3.623</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.903</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.535</v>
+        <v>15.823</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>9.869</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.153</v>
+        <v>1.342</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.149</v>
+        <v>0.929</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.588</v>
+        <v>164.347</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.473</v>
+        <v>31.527</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.825</v>
+        <v>10.411</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.67</v>
+        <v>20.764</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.288</v>
+        <v>10.85</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.103</v>
+        <v>2.023</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.018</v>
+        <v>21.046</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.596</v>
+        <v>9.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.421</v>
+        <v>8.337</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.616</v>
+        <v>9.750999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8110000000000001</v>
+        <v>13.118</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>1.141</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.305</v>
+        <v>38.438</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.63</v>
+        <v>5.675</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.592</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.72916666666</v>
+        <v>45104.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.316</v>
+        <v>12.84</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.997</v>
+        <v>9.439</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.068</v>
+        <v>1.184</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.657</v>
+        <v>28.189</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.339</v>
+        <v>22.479</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.717</v>
+        <v>10.016</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.187</v>
+        <v>40.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.028</v>
+        <v>15.707</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.189</v>
+        <v>6.831</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.16</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.254</v>
+        <v>11.289</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.095</v>
+        <v>12.094</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.336</v>
+        <v>3.261</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.257</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.218</v>
+        <v>14.319</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.609</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.799</v>
+        <v>0.92</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.067</v>
+        <v>0.7</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.515000000000001</v>
+        <v>147.187</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.699</v>
+        <v>28.414</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.163</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.267</v>
+        <v>18.841</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.417</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.689</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.741</v>
+        <v>19.538</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.913</v>
+        <v>8.276</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.744</v>
+        <v>7.453</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.966</v>
+        <v>8.734</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.293</v>
+        <v>11.852</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0.724</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.312</v>
+        <v>36.627</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.772</v>
+        <v>5.156</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.105</v>
+        <v>11.715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.73611111111</v>
+        <v>45104.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.779</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.094</v>
+        <v>6.28</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.108</v>
+        <v>0.83</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.915</v>
+        <v>18.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.002</v>
+        <v>14.91</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.949</v>
+        <v>6.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.85</v>
+        <v>28.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.688</v>
+        <v>10.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.862</v>
+        <v>4.55</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.338</v>
+        <v>6.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.514</v>
+        <v>7.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.488</v>
+        <v>8.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.707</v>
+        <v>2.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.365</v>
+        <v>6.77</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.9</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.606</v>
+        <v>5.9</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.627</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.076</v>
+        <v>0.48</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.758</v>
+        <v>95.69</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.894</v>
+        <v>19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.188</v>
+        <v>6.25</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.312</v>
+        <v>12.57</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.435</v>
+        <v>6.56</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.297</v>
+        <v>1.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.576</v>
+        <v>13.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.836</v>
+        <v>5.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.574</v>
+        <v>4.99</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.926</v>
+        <v>5.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.629</v>
+        <v>7.91</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.166</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.436</v>
+        <v>25.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.329</v>
+        <v>3.42</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.451</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.74304398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.88</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>27.63</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.619999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.38</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.42</v>
+        <v>7.81</v>
       </c>
     </row>
   </sheetData>
